--- a/assets/Data/경기도GRDP.xlsx
+++ b/assets/Data/경기도GRDP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박진우\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31997550-0FDF-4361-9567-2B97C0E1679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96529E-B8FC-42BE-9396-C8EC76B9D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7080" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{90F1CE8B-274F-4258-BB11-734C4A4DD5A9}"/>
+    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{90F1CE8B-274F-4258-BB11-734C4A4DD5A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>GRDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>Region</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRDP가 높은 순으로 계급을 5부터 내림차순으로 순차적으로 부여하였으며, 중간 계급인 '3'의 경우 다른 계급들과 달리 도수를 하나 더 부여하였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E843DF-4107-4250-A094-B7F39AE98466}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -639,7 +635,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7">
         <v>91041737</v>
@@ -650,7 +646,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>50302710</v>
@@ -661,7 +657,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7">
         <v>35684685</v>
@@ -672,7 +668,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7">
         <v>35308886</v>
@@ -683,7 +679,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7">
         <v>35038757</v>
@@ -694,7 +690,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7">
         <v>28534355</v>
@@ -705,7 +701,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7">
         <v>25717424</v>
@@ -716,7 +712,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7">
         <v>23932152</v>
@@ -727,7 +723,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7">
         <v>22616950</v>
@@ -738,7 +734,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7">
         <v>18439904</v>
@@ -749,7 +745,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7">
         <v>17940553</v>
@@ -760,7 +756,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7">
         <v>17801820</v>
@@ -771,7 +767,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7">
         <v>15460054</v>
@@ -782,7 +778,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7">
         <v>13099866</v>
@@ -793,7 +789,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7">
         <v>10821756</v>
@@ -804,7 +800,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7">
         <v>10237439</v>
@@ -815,7 +811,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7">
         <v>8087877</v>
@@ -826,7 +822,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
         <v>8074460</v>
@@ -837,7 +833,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="7">
         <v>7636652</v>
@@ -849,7 +845,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7">
         <v>7496139</v>
@@ -860,7 +856,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7">
         <v>7388564</v>
@@ -871,7 +867,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7">
         <v>7329556</v>
@@ -882,7 +878,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="7">
         <v>6031892</v>
@@ -893,7 +889,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="7">
         <v>4663018</v>
@@ -904,7 +900,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="7">
         <v>4650517</v>
@@ -915,7 +911,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7">
         <v>4127736</v>
@@ -926,7 +922,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="7">
         <v>3611223</v>
@@ -937,7 +933,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="7">
         <v>2475909</v>
@@ -948,7 +944,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="7">
         <v>1985743</v>
@@ -959,7 +955,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="7">
         <v>1879532</v>
@@ -970,7 +966,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="7">
         <v>1792963</v>
@@ -980,9 +976,7 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A34" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
